--- a/output/tables/desc_tabs_indep.xlsx
+++ b/output/tables/desc_tabs_indep.xlsx
@@ -358,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -384,119 +384,119 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>avg_educ</t>
+          <t>class</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>avg_educ</t>
+          <t>class</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>avg_educ</t>
+          <t>class</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>avg_income</t>
+          <t>class_8</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>avg_income</t>
+          <t>class_8</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>avg_income</t>
+          <t>class_8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>avg_isei</t>
+          <t>class_5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>avg_isei</t>
+          <t>class_5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>avg_isei</t>
+          <t>class_5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>educ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>educ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>educ</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>class_8</t>
+          <t>ln_income</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>class_8</t>
+          <t>ln_income</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>class_8</t>
+          <t>ln_income</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>class_5</t>
+          <t>quint_inc</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>class_5</t>
+          <t>quint_inc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>class_5</t>
+          <t>quint_inc</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>educ</t>
+          <t>isco</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>educ</t>
+          <t>isco</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>educ</t>
+          <t>isco</t>
         </is>
       </c>
     </row>
@@ -520,102 +520,51 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ln_income</t>
+          <t>nse_indiv</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ln_income</t>
+          <t>nse_indiv</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ln_income</t>
+          <t>nse_indiv</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>nse_indiv</t>
+          <t>nse_barrio</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>nse_indiv</t>
+          <t>nse_barrio</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>nse_indiv</t>
+          <t>nse_barrio</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>quint_inc</t>
+          <t>nse_barrio_norm</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>quint_inc</t>
+          <t>nse_barrio_norm</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quint_inc</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>quint_nse_indiv</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>quint_nse_indiv</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>quint_nse_indiv</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>nse_barrio</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>nse_barrio</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>nse_barrio</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>quint_nse_barrio</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>quint_nse_barrio</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>quint_nse_barrio</t>
+          <t>nse_barrio_norm</t>
         </is>
       </c>
     </row>
@@ -626,7 +575,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -657,87 +606,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>avg_educ</t>
+          <t>class</t>
         </is>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>avg_income</t>
+          <t>class_8</t>
         </is>
       </c>
       <c r="B3">
-        <v>10.91508865356445</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>10.94132614135742</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>10.94132614135742</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>avg_isei</t>
+          <t>class_5</t>
         </is>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>educ</t>
         </is>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>class_8</t>
+          <t>ln_income</t>
         </is>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>10.59663473309607</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>9.615805480084347</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>9.350102314351341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>class_5</t>
+          <t>quint_inc</t>
         </is>
       </c>
       <c r="B7">
@@ -753,17 +702,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>educ</t>
+          <t>isco</t>
         </is>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
@@ -773,7 +722,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -785,97 +734,49 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ln_income</t>
+          <t>nse_indiv</t>
         </is>
       </c>
       <c r="B10">
-        <v>10.81977844238281</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>10.81977844238281</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>10.30895233154297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>nse_indiv</t>
+          <t>nse_barrio</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.01686644740402699</v>
+        <v>-6.38235135756367</v>
       </c>
       <c r="C11">
-        <v>0.01686644740402699</v>
+        <v>-6.38235135756367</v>
       </c>
       <c r="D11">
-        <v>0.01686644740402699</v>
+        <v>-6.38235135756367</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>quint_inc</t>
+          <t>nse_barrio_norm</t>
         </is>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>quint_nse_indiv</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>nse_barrio</t>
-        </is>
-      </c>
-      <c r="B14">
         <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>quint_nse_barrio</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -885,7 +786,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -916,113 +817,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>avg_educ</t>
+          <t>class</t>
         </is>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>avg_income</t>
+          <t>class_8</t>
         </is>
       </c>
       <c r="B3">
-        <v>12.89397048950195</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>12.88101816177368</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>12.89921951293945</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>avg_isei</t>
+          <t>class_5</t>
         </is>
       </c>
       <c r="B4">
-        <v>29.23142099380493</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>28.66666603088379</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>28.89529991149902</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>educ</t>
         </is>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>class_8</t>
+          <t>ln_income</t>
         </is>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>12.61153775363834</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>12.70684793344266</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>12.84792653170257</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>class_5</t>
+          <t>quint_inc</t>
         </is>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>educ</t>
+          <t>isco</t>
         </is>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3341</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>4311</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="9">
@@ -1032,109 +933,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>29</v>
+        <v>30.68182945251465</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>27.43284606933594</v>
       </c>
       <c r="D9">
-        <v>28.13924217224121</v>
+        <v>27.46867275238037</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ln_income</t>
+          <t>nse_indiv</t>
         </is>
       </c>
       <c r="B10">
-        <v>12.7656888961792</v>
+        <v>0.4552579635566482</v>
       </c>
       <c r="C10">
-        <v>12.84792613983154</v>
+        <v>0.2202733151143556</v>
       </c>
       <c r="D10">
-        <v>12.89921951293945</v>
+        <v>0.5673063878786502</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>nse_indiv</t>
+          <t>nse_barrio</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.2177616506814957</v>
+        <v>-1.75532725221178</v>
       </c>
       <c r="C11">
-        <v>0.2142325080931187</v>
+        <v>-1.86367406879659</v>
       </c>
       <c r="D11">
-        <v>0.2132528871297836</v>
+        <v>-1.84298050395657</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>quint_inc</t>
+          <t>nse_barrio_norm</t>
         </is>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>0.351394042372937</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>0.346643362140475</v>
       </c>
       <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>quint_nse_indiv</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>nse_barrio</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>0.2606513798236847</v>
-      </c>
-      <c r="C14">
-        <v>0.3705987259745598</v>
-      </c>
-      <c r="D14">
-        <v>0.3774734139442444</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>quint_nse_barrio</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
+        <v>0.34799504517911</v>
       </c>
     </row>
   </sheetData>
@@ -1144,7 +997,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1175,113 +1028,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>avg_educ</t>
+          <t>class</t>
         </is>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>avg_income</t>
+          <t>class_8</t>
         </is>
       </c>
       <c r="B3">
-        <v>13.26542377471924</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>13.24529409408569</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>13.24391078948975</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>avg_isei</t>
+          <t>class_5</t>
         </is>
       </c>
       <c r="B4">
-        <v>36.33333206176758</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>35.8040657043457</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>educ</t>
         </is>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>class_8</t>
+          <t>ln_income</t>
         </is>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>13.12236337740433</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>13.12236337740433</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>13.30468493419828</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>class_5</t>
+          <t>quint_inc</t>
         </is>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>educ</t>
+          <t>isco</t>
         </is>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>7112</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>7123</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>7223</v>
       </c>
     </row>
     <row r="9">
@@ -1297,103 +1150,55 @@
         <v>35</v>
       </c>
       <c r="D9">
-        <v>35.17475128173828</v>
+        <v>33.86262512207031</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ln_income</t>
+          <t>nse_indiv</t>
         </is>
       </c>
       <c r="B10">
-        <v>13.12236309051514</v>
+        <v>0.6483212586125442</v>
       </c>
       <c r="C10">
-        <v>13.30468463897705</v>
+        <v>0.3161617834281477</v>
       </c>
       <c r="D10">
-        <v>13.38472747802734</v>
+        <v>0.6985834022755403</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>nse_indiv</t>
+          <t>nse_barrio</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.2848613560199738</v>
+        <v>-0.3942931082599355</v>
       </c>
       <c r="C11">
-        <v>0.2769475132226944</v>
+        <v>-0.447082132699248</v>
       </c>
       <c r="D11">
-        <v>0.2765963971614838</v>
+        <v>-0.4671176105460825</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>quint_inc</t>
+          <t>nse_barrio_norm</t>
         </is>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>0.488601006665239</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>0.4731016784526905</v>
       </c>
       <c r="D12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>quint_nse_indiv</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>nse_barrio</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>0.3714505136013031</v>
-      </c>
-      <c r="C14">
-        <v>0.482164204120636</v>
-      </c>
-      <c r="D14">
-        <v>0.4899513423442841</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>quint_nse_barrio</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
+        <v>0.47163675928004</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1434,113 +1239,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>avg_educ</t>
+          <t>class</t>
         </is>
       </c>
       <c r="B2">
-        <v>3.054934819850176</v>
+        <v>12.45247148288973</v>
       </c>
       <c r="C2">
-        <v>3.013535027671012</v>
+        <v>12.45277777777778</v>
       </c>
       <c r="D2">
-        <v>3.041584154874972</v>
+        <v>12.50770988006853</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>avg_income</t>
+          <t>class_8</t>
         </is>
       </c>
       <c r="B3">
-        <v>13.31730944352343</v>
+        <v>6.594785442694188</v>
       </c>
       <c r="C3">
-        <v>13.31224695284655</v>
+        <v>6.547012505789717</v>
       </c>
       <c r="D3">
-        <v>13.31485386083622</v>
+        <v>6.60422615648201</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>avg_isei</t>
+          <t>class_5</t>
         </is>
       </c>
       <c r="B4">
-        <v>39.51832516845566</v>
+        <v>4.11787072243346</v>
       </c>
       <c r="C4">
-        <v>38.53606245624032</v>
+        <v>4.139416396479851</v>
       </c>
       <c r="D4">
-        <v>38.51733547248462</v>
+        <v>4.222158766419189</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>educ</t>
         </is>
       </c>
       <c r="B5">
-        <v>12.23798882681564</v>
+        <v>3.060943296237414</v>
       </c>
       <c r="C5">
-        <v>12.04458598726115</v>
+        <v>3.035017730496454</v>
       </c>
       <c r="D5">
-        <v>12.35049504950495</v>
+        <v>3.098442714126807</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>class_8</t>
+          <t>ln_income</t>
         </is>
       </c>
       <c r="B6">
-        <v>6.411173184357541</v>
+        <v>13.15113218206428</v>
       </c>
       <c r="C6">
-        <v>6.307324840764331</v>
+        <v>13.20861754148414</v>
       </c>
       <c r="D6">
-        <v>6.467326732673268</v>
+        <v>13.35408373639774</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>class_5</t>
+          <t>quint_inc</t>
         </is>
       </c>
       <c r="B7">
-        <v>3.950837988826815</v>
+        <v>2.998897464167586</v>
       </c>
       <c r="C7">
-        <v>4.009554140127388</v>
+        <v>2.999105545617173</v>
       </c>
       <c r="D7">
-        <v>4.116831683168317</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>educ</t>
+          <t>isco</t>
         </is>
       </c>
       <c r="B8">
-        <v>3.052513966480447</v>
+        <v>7323.591526344379</v>
       </c>
       <c r="C8">
-        <v>2.985668789808917</v>
+        <v>7529.098911070781</v>
       </c>
       <c r="D8">
-        <v>3.097029702970297</v>
+        <v>7996.339558573854</v>
       </c>
     </row>
     <row r="9">
@@ -1550,109 +1355,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>40.92276004829792</v>
+        <v>40.90243884728338</v>
       </c>
       <c r="C9">
-        <v>37.69871143176795</v>
+        <v>37.47109216390689</v>
       </c>
       <c r="D9">
-        <v>37.80490223029499</v>
+        <v>37.29118571480669</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ln_income</t>
+          <t>nse_indiv</t>
         </is>
       </c>
       <c r="B10">
-        <v>13.23665832754078</v>
+        <v>0.6119811932317164</v>
       </c>
       <c r="C10">
-        <v>13.30913920585926</v>
+        <v>0.3478084106403286</v>
       </c>
       <c r="D10">
-        <v>13.45982591279474</v>
+        <v>0.6552631423092868</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>nse_indiv</t>
+          <t>nse_barrio</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.3007164831300175</v>
+        <v>-0.3061203078251845</v>
       </c>
       <c r="C11">
-        <v>0.2965145946219326</v>
+        <v>-0.3815390114606554</v>
       </c>
       <c r="D11">
-        <v>0.2976521805850881</v>
+        <v>-0.3965677380159711</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>quint_inc</t>
+          <t>nse_barrio_norm</t>
         </is>
       </c>
       <c r="B12">
-        <v>3.357225433526012</v>
+        <v>0.4912994013127349</v>
       </c>
       <c r="C12">
-        <v>3.343949044585987</v>
+        <v>0.482456032116268</v>
       </c>
       <c r="D12">
-        <v>3.352475247524752</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>quint_nse_indiv</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>3.213872832369942</v>
-      </c>
-      <c r="C13">
-        <v>3.165605095541401</v>
-      </c>
-      <c r="D13">
-        <v>3.188118811881188</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>nse_barrio</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>0.4068472192372968</v>
-      </c>
-      <c r="C14">
-        <v>0.490721073595144</v>
-      </c>
-      <c r="D14">
-        <v>0.4977074101567268</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>quint_nse_barrio</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>2.989974937343358</v>
-      </c>
-      <c r="C15">
-        <v>2.979661016949152</v>
-      </c>
-      <c r="D15">
-        <v>3.053061224489796</v>
+        <v>0.4821471637940812</v>
       </c>
     </row>
   </sheetData>
@@ -1662,7 +1419,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1693,113 +1450,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>avg_educ</t>
+          <t>class</t>
         </is>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>avg_income</t>
+          <t>class_8</t>
         </is>
       </c>
       <c r="B3">
-        <v>13.71478176116943</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>13.70600891113281</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>13.70600891113281</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>avg_isei</t>
+          <t>class_5</t>
         </is>
       </c>
       <c r="B4">
-        <v>48.39803791046143</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>47.06185913085938</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>educ</t>
         </is>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>class_8</t>
+          <t>ln_income</t>
         </is>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>13.59236700665006</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>13.6529916284665</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>13.81551055796427</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>class_5</t>
+          <t>quint_inc</t>
         </is>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>educ</t>
+          <t>isco</t>
         </is>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>9112</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>9313</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>9520</v>
       </c>
     </row>
     <row r="9">
@@ -1809,109 +1566,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>56</v>
+        <v>53.61317443847656</v>
       </c>
       <c r="C9">
         <v>45</v>
       </c>
       <c r="D9">
-        <v>45</v>
+        <v>44.61691093444824</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ln_income</t>
+          <t>nse_indiv</t>
         </is>
       </c>
       <c r="B10">
-        <v>13.59236717224121</v>
+        <v>0.7447898825962449</v>
       </c>
       <c r="C10">
-        <v>13.76421737670898</v>
+        <v>0.4423314094682027</v>
       </c>
       <c r="D10">
-        <v>13.99783229827881</v>
+        <v>0.7799952854546748</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>nse_indiv</t>
+          <t>nse_barrio</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.368401050567627</v>
+        <v>0.9428201180062872</v>
       </c>
       <c r="C11">
-        <v>0.3630503639578819</v>
+        <v>0.902126046163466</v>
       </c>
       <c r="D11">
-        <v>0.3720852732658386</v>
+        <v>0.821156275648645</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>quint_inc</t>
+          <t>nse_barrio_norm</t>
         </is>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>0.619940967914217</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>0.597726830085332</v>
       </c>
       <c r="D12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>quint_nse_indiv</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>nse_barrio</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>0.505428671836853</v>
-      </c>
-      <c r="C14">
-        <v>0.5785516500473022</v>
-      </c>
-      <c r="D14">
-        <v>0.5806463956832886</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>quint_nse_barrio</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
+        <v>0.596231259864532</v>
       </c>
     </row>
   </sheetData>
@@ -1921,7 +1630,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1952,113 +1661,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>avg_educ</t>
+          <t>class</t>
         </is>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>avg_income</t>
+          <t>class_8</t>
         </is>
       </c>
       <c r="B3">
-        <v>22.10956001281738</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>15.67172718048096</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>15.53037166595459</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>avg_isei</t>
+          <t>class_5</t>
         </is>
       </c>
       <c r="B4">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>educ</t>
         </is>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>class_8</t>
+          <t>ln_income</t>
         </is>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>22.1095601980663</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>16.99356438831222</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>18.82614585206053</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>class_5</t>
+          <t>quint_inc</t>
         </is>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>educ</t>
+          <t>isco</t>
         </is>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>16000</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>16000</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="9">
@@ -2074,103 +1783,55 @@
         <v>89</v>
       </c>
       <c r="D9">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ln_income</t>
+          <t>nse_indiv</t>
         </is>
       </c>
       <c r="B10">
-        <v>22.10956001281738</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>15.89495182037354</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>16.70588302612305</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>nse_indiv</t>
+          <t>nse_barrio</t>
         </is>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>5.11941513645951</v>
       </c>
       <c r="C11">
-        <v>0.6090278029441833</v>
+        <v>5.11941513645951</v>
       </c>
       <c r="D11">
-        <v>0.6178119778633118</v>
+        <v>5.11941513645951</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>quint_inc</t>
+          <t>nse_barrio_norm</t>
         </is>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>quint_nse_indiv</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>nse_barrio</t>
-        </is>
-      </c>
-      <c r="B14">
         <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>quint_nse_barrio</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2180,7 +1841,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2211,56 +1872,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>avg_educ</t>
-        </is>
+          <t>class</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>47</v>
+      </c>
+      <c r="C2">
+        <v>96</v>
+      </c>
+      <c r="D2">
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>avg_income</t>
+          <t>class_8</t>
         </is>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>97</v>
+      </c>
+      <c r="D3">
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>avg_isei</t>
+          <t>class_5</t>
         </is>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>97</v>
+      </c>
+      <c r="D4">
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>class</t>
-        </is>
+          <t>educ</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>class_8</t>
-        </is>
+          <t>ln_income</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>74</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>class_5</t>
-        </is>
+          <t>quint_inc</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>74</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>educ</t>
-        </is>
+          <t>isco</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -2270,91 +1985,43 @@
         </is>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ln_income</t>
+          <t>nse_indiv</t>
         </is>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>nse_indiv</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>30</v>
+          <t>nse_barrio</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>quint_inc</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>quint_nse_indiv</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>nse_barrio</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>97</v>
-      </c>
-      <c r="C14">
-        <v>38</v>
-      </c>
-      <c r="D14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>quint_nse_barrio</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>97</v>
-      </c>
-      <c r="C15">
-        <v>38</v>
-      </c>
-      <c r="D15">
-        <v>15</v>
+          <t>nse_barrio_norm</t>
+        </is>
       </c>
     </row>
   </sheetData>
